--- a/Output/Cocconi_1992 Cocconi 1992 OS DTIC parameters.xlsx
+++ b/Output/Cocconi_1992 Cocconi 1992 OS DTIC parameters.xlsx
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.14218267845162</v>
+        <v>-2.0472551672577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.273912315481934</v>
+        <v>0.261938085818681</v>
       </c>
       <c r="D2" t="n">
         <v>193.979121370209</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1969390943671</v>
+        <v>0.155430830791449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161633137077179</v>
+        <v>0.172266877897778</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.49818030642701</v>
+        <v>1.41853795862842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.331222567339514</v>
+        <v>0.298670614418002</v>
       </c>
       <c r="D2" t="n">
         <v>195.055063482483</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.01418267661033</v>
+        <v>-0.997272275177952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.147453826849644</v>
+        <v>0.129046366793532</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.51780137431937</v>
+        <v>-1.45210266844635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.174083053785454</v>
+        <v>0.163509255779092</v>
       </c>
       <c r="D2" t="n">
         <v>194.478075588205</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.80764729238051</v>
+        <v>1.76506582427408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276044299109395</v>
+        <v>0.238246846292879</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.02381715538323</v>
+        <v>-1.9226526959951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.255778640267797</v>
+        <v>0.2434248993688</v>
       </c>
       <c r="D2" t="n">
         <v>194.845130608218</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0255597996111659</v>
+        <v>0.0148059705014051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0404981984260776</v>
+        <v>0.0463504303092982</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0750279565726748</v>
+        <v>0.0686115608023547</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0311812098035073</v>
+        <v>-0.0339121655313017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0311812098035073</v>
+        <v>-0.0339121655313017</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0261252710014103</v>
+        <v>0.0296758772206481</v>
       </c>
     </row>
   </sheetData>
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.109708389114979</v>
+        <v>0.089204135916827</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0418133861145634</v>
+        <v>-0.0321888868121076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0418133861145634</v>
+        <v>-0.0321888868121076</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0217426310526049</v>
+        <v>0.0166529647826108</v>
       </c>
     </row>
   </sheetData>
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0303049096152694</v>
+        <v>0.0267352767254325</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0131148317432069</v>
+        <v>-0.0101279729218984</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0131148317432069</v>
+        <v>-0.0101279729218984</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0762004550707972</v>
+        <v>0.0567615597685027</v>
       </c>
     </row>
   </sheetData>
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0654227128172429</v>
+        <v>0.0592556816327103</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00711036413780034</v>
+        <v>-0.00869296177512084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00711036413780034</v>
+        <v>-0.00869296177512084</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00164010407575795</v>
+        <v>0.00214836238985711</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Cocconi_1992 Cocconi 1992 OS DTIC parameters.xlsx
+++ b/Output/Cocconi_1992 Cocconi 1992 OS DTIC parameters.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -375,12 +375,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -404,10 +404,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-2.0472551672577</v>
+        <v>-2.14218267845162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.261938085818681</v>
+        <v>0.273912315481934</v>
       </c>
       <c r="D2" t="n">
         <v>193.979121370209</v>
@@ -421,10 +421,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.155430830791449</v>
+        <v>0.1969390943671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.172266877897778</v>
+        <v>0.161633137077179</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -436,12 +436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1"/>
@@ -453,12 +453,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -482,10 +482,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.41853795862842</v>
+        <v>1.49818030642701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.298670614418002</v>
+        <v>0.331222567339514</v>
       </c>
       <c r="D2" t="n">
         <v>195.055063482483</v>
@@ -499,10 +499,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.997272275177952</v>
+        <v>-1.01418267661033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.129046366793532</v>
+        <v>0.147453826849644</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -514,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -543,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.45210266844635</v>
+        <v>-1.51780137431937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.163509255779092</v>
+        <v>0.174083053785454</v>
       </c>
       <c r="D2" t="n">
         <v>194.478075588205</v>
@@ -560,10 +560,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.76506582427408</v>
+        <v>0.580710717024211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.238246846292879</v>
+        <v>0.149819611981135</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -575,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -604,10 +604,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.9226526959951</v>
+        <v>-2.02381715538323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2434248993688</v>
+        <v>0.255778640267797</v>
       </c>
       <c r="D2" t="n">
         <v>194.845130608218</v>
@@ -621,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0148059705014051</v>
+        <v>0.0255597996111659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0463504303092982</v>
+        <v>0.0404981984260776</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -636,12 +636,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -684,12 +684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -701,18 +701,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0686115608023547</v>
+        <v>0.0750279565726748</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0339121655313017</v>
+        <v>-0.0311812098035073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0339121655313017</v>
+        <v>-0.0311812098035073</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0296758772206481</v>
+        <v>0.0261252710014103</v>
       </c>
     </row>
   </sheetData>
@@ -722,12 +722,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -739,18 +739,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.089204135916827</v>
+        <v>0.109708389114979</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0321888868121076</v>
+        <v>-0.0418133861145634</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0321888868121076</v>
+        <v>-0.0418133861145634</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0166529647826108</v>
+        <v>0.0217426310526049</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +760,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -777,18 +777,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0267352767254325</v>
+        <v>0.0303049096152694</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0101279729218984</v>
+        <v>-0.0072368232351397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0101279729218984</v>
+        <v>-0.0072368232351397</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0567615597685027</v>
+        <v>0.0224459161341779</v>
       </c>
     </row>
   </sheetData>
@@ -798,12 +798,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -815,18 +815,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0592556816327103</v>
+        <v>0.0654227128172429</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.00869296177512084</v>
+        <v>-0.00711036413780034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.00869296177512084</v>
+        <v>-0.00711036413780034</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00214836238985711</v>
+        <v>0.00164010407575795</v>
       </c>
     </row>
   </sheetData>
